--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B72EF1AB-1416-0241-8E9D-2682998B6CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE989DBE-C969-D14A-9C41-1081AA7AA425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2660" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
+    <workbookView xWindow="2100" yWindow="2360" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>今日完成工作</t>
+  </si>
+  <si>
+    <t>目前存在的问题</t>
+  </si>
+  <si>
+    <t>今日未完成工作</t>
+  </si>
+  <si>
+    <t>明日计划工作</t>
+  </si>
+  <si>
+    <t>完成了框架的API部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善框架细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据格式某些细节没有定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,16 +86,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,15 +128,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,12 +485,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="5" width="25.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34">
+      <c r="A2" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE989DBE-C969-D14A-9C41-1081AA7AA425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE965C2-CAE5-9948-9CB4-67B79DDB35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2360" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
+    <workbookView xWindow="2700" yWindow="4040" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
   </si>
@@ -63,6 +63,29 @@
   </si>
   <si>
     <t>测试数据格式某些细节没有定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了session通用post方法
+修正了数据读取gui数据与api数据混杂的情况，增加了upload_file字段
+修正了base的conf文件中的错误
+增加了login_api配置
+增加了report示例
+增加了API测试的用例要求说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gui中的免登陆待实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行GUI测试编写
+测试报告编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+测试报告编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +193,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -531,6 +560,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="170">
+      <c r="A3" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE965C2-CAE5-9948-9CB4-67B79DDB35A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98909585-C856-FD4D-BD3E-D0ED4FFAD9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="4040" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
+    <workbookView xWindow="2800" yWindow="2400" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -86,6 +86,14 @@
   <si>
     <t xml:space="preserve">
 测试报告编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写了测试报告编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写接口测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -577,6 +585,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98909585-C856-FD4D-BD3E-D0ED4FFAD9BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE8856-3309-294E-A497-9ED9BFE24449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="2400" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>编写接口测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写了【学员管理】模块接口测试用例12条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API测试用例的用例要求需要进行升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API测试用例的用例要求升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -600,6 +612,23 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="34">
+      <c r="A5" s="7">
+        <v>3.26</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AE8856-3309-294E-A497-9ED9BFE24449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52808D0-783C-8646-B51B-DE740C778C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="2400" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>日期</t>
   </si>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>API测试用例的用例要求升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -629,6 +633,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summit_file/summit_logs/王子龙日志.xlsx
+++ b/summit_file/summit_logs/王子龙日志.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/summit_file/summit_logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52808D0-783C-8646-B51B-DE740C778C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C8128F-5B4B-504D-AD85-939A82AB9B2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2800" yWindow="2400" windowWidth="26640" windowHeight="15440" xr2:uid="{834446AB-0265-9045-8C86-59E44BED5FBF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写了【学员管理】模块接口测试代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写【学员管理】模块接口测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55324CD9-6CED-CD43-BBE1-C797E3B344D0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,6 +649,21 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="34">
+      <c r="A7" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
